--- a/GA/Aircrafts.xlsx
+++ b/GA/Aircrafts.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="WAW-VNO" sheetId="1" r:id="rId1"/>
+    <sheet name="MNSK-VNO" sheetId="2" r:id="rId2"/>
+    <sheet name="RIA-VNO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Aircraft</t>
   </si>
@@ -27,30 +29,9 @@
     <t>TAC</t>
   </si>
   <si>
-    <t>LY-001</t>
-  </si>
-  <si>
-    <t>LY-002</t>
-  </si>
-  <si>
-    <t>LY-003</t>
-  </si>
-  <si>
     <t>ETC</t>
   </si>
   <si>
-    <t>28/2/19 13:00</t>
-  </si>
-  <si>
-    <t>LY-004</t>
-  </si>
-  <si>
-    <t>LY-005</t>
-  </si>
-  <si>
-    <t>28/2/19 13:06</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -75,13 +56,127 @@
     <t>VI412</t>
   </si>
   <si>
-    <t>28/2/19 13:02</t>
-  </si>
-  <si>
-    <t>28/2/19 13:04</t>
-  </si>
-  <si>
-    <t>28/2/19 13:08</t>
+    <t>UMMS</t>
+  </si>
+  <si>
+    <t>DUKAT</t>
+  </si>
+  <si>
+    <t>VI408</t>
+  </si>
+  <si>
+    <t>VI407</t>
+  </si>
+  <si>
+    <t>EKSAM</t>
+  </si>
+  <si>
+    <t>EVRA</t>
+  </si>
+  <si>
+    <t>ERIVA</t>
+  </si>
+  <si>
+    <t>MURUN</t>
+  </si>
+  <si>
+    <t>VI403</t>
+  </si>
+  <si>
+    <t>GEKBI</t>
+  </si>
+  <si>
+    <t>SP-001</t>
+  </si>
+  <si>
+    <t>SP-002</t>
+  </si>
+  <si>
+    <t>SP-003</t>
+  </si>
+  <si>
+    <t>SP-004</t>
+  </si>
+  <si>
+    <t>SP-005</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>EW-001</t>
+  </si>
+  <si>
+    <t>EW-002</t>
+  </si>
+  <si>
+    <t>EW-003</t>
+  </si>
+  <si>
+    <t>EW-004</t>
+  </si>
+  <si>
+    <t>EW-005</t>
+  </si>
+  <si>
+    <t>YL-001</t>
+  </si>
+  <si>
+    <t>YL-002</t>
+  </si>
+  <si>
+    <t>YL-003</t>
+  </si>
+  <si>
+    <t>YL-004</t>
+  </si>
+  <si>
+    <t>YL-005</t>
+  </si>
+  <si>
+    <t>28/2/19 13:06:30</t>
+  </si>
+  <si>
+    <t>28/2/19 13:09:30</t>
+  </si>
+  <si>
+    <t>28/2/19 13:44:30</t>
+  </si>
+  <si>
+    <t>28/2/19 13:38:30</t>
+  </si>
+  <si>
+    <t>28/2/19 13:42:00</t>
+  </si>
+  <si>
+    <t>28/2/19 13:03:00</t>
+  </si>
+  <si>
+    <t>28/2/19 13:20:00</t>
+  </si>
+  <si>
+    <t>28/2/19 12:48:00</t>
+  </si>
+  <si>
+    <t>28/2/19 12:53:00</t>
+  </si>
+  <si>
+    <t>28/2/19 12:55:00</t>
+  </si>
+  <si>
+    <t>28/2/19 12:59:00</t>
+  </si>
+  <si>
+    <t>28/2/19 13:01:30</t>
+  </si>
+  <si>
+    <t>28/2/19 13:03:30</t>
+  </si>
+  <si>
+    <t>28/2/19 13:08:30</t>
+  </si>
+  <si>
+    <t>28/2/19 13:24:30</t>
   </si>
 </sst>
 </file>
@@ -92,13 +187,18 @@
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,10 +221,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,21 +509,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
     <col min="4" max="4" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -428,228 +532,674 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="H2">
         <v>250</v>
       </c>
       <c r="I2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J2">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="L2" s="4">
+        <v>307.51462879193099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F3">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G3">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="H3">
         <v>250</v>
       </c>
       <c r="I3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="L3" s="4">
+        <v>307.51462879193099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F4">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G4">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="H4">
         <v>250</v>
       </c>
       <c r="I4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J4">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="L4" s="4">
+        <v>277.78256421962101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G5">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="H5">
         <v>250</v>
       </c>
       <c r="I5">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J5">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="L5" s="4">
+        <v>277.78256421962101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>280</v>
+      </c>
+      <c r="F6">
+        <v>280</v>
+      </c>
+      <c r="G6">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>250</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>180</v>
+      </c>
+      <c r="K6">
+        <v>120</v>
+      </c>
+      <c r="L6" s="4">
+        <v>277.78256421962101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>280</v>
+      </c>
+      <c r="F2">
+        <v>250</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
+        <v>250</v>
+      </c>
+      <c r="I2">
+        <v>180</v>
+      </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
+      <c r="K2" s="4">
+        <v>35.246334212336002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3">
+        <v>250</v>
+      </c>
+      <c r="G3">
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <v>250</v>
+      </c>
+      <c r="I3">
+        <v>180</v>
+      </c>
+      <c r="J3">
+        <v>120</v>
+      </c>
+      <c r="K3" s="4">
+        <v>35.246334212336002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+      <c r="G4">
+        <v>250</v>
+      </c>
+      <c r="H4">
+        <v>250</v>
+      </c>
+      <c r="I4">
+        <v>180</v>
+      </c>
+      <c r="J4">
+        <v>120</v>
+      </c>
+      <c r="K4" s="4">
+        <v>33.583309713352897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+      <c r="G5">
+        <v>250</v>
+      </c>
+      <c r="H5">
+        <v>250</v>
+      </c>
+      <c r="I5">
+        <v>180</v>
+      </c>
+      <c r="J5">
+        <v>120</v>
+      </c>
+      <c r="K5" s="4">
+        <v>33.583309713352897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6">
+        <v>250</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>250</v>
+      </c>
+      <c r="I6">
+        <v>180</v>
+      </c>
+      <c r="J6">
+        <v>120</v>
+      </c>
+      <c r="K6" s="4">
+        <v>33.583309713352897</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>20</v>
       </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>280</v>
+      </c>
+      <c r="F2">
+        <v>280</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>180</v>
+      </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
+      <c r="K2" s="4">
+        <v>190.39091190665499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>280</v>
+      </c>
+      <c r="F3">
+        <v>280</v>
+      </c>
+      <c r="G3">
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>180</v>
+      </c>
+      <c r="J3">
+        <v>120</v>
+      </c>
+      <c r="K3" s="4">
+        <v>190.39091190665499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>280</v>
+      </c>
+      <c r="F4">
+        <v>280</v>
+      </c>
+      <c r="G4">
+        <v>250</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4">
+        <v>180</v>
+      </c>
+      <c r="J4">
+        <v>120</v>
+      </c>
+      <c r="K4" s="4">
+        <v>170.11523949741499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>280</v>
+      </c>
+      <c r="F5">
+        <v>280</v>
+      </c>
+      <c r="G5">
+        <v>250</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5">
+        <v>180</v>
+      </c>
+      <c r="J5">
+        <v>120</v>
+      </c>
+      <c r="K5" s="4">
+        <v>170.11523949741499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E6">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F6">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G6">
         <v>250</v>
       </c>
       <c r="H6">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I6">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="J6">
-        <v>250</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="K6" s="4">
+        <v>170.11523949741499</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
